--- a/awm/doc/log/log_201608040132_fangjun.xlsx
+++ b/awm/doc/log/log_201608040132_fangjun.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9ADB2070-8288-49D9-B4D4-6E79E011F142}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53C13D06-E73B-484F-9785-6F284418A4D7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="124">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,30 @@
   </si>
   <si>
     <t>未修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用并配置jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论项目立项和项目计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论项目概要设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论概要设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论基本上确定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93:C94"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2041,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43217</v>
+        <v>43267</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>11</v>
@@ -2035,7 +2059,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43217</v>
+        <v>43268</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>11</v>
@@ -2053,7 +2077,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43217</v>
+        <v>43269</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>11</v>
@@ -2071,14 +2095,20 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43217</v>
+        <v>43270</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
@@ -2094,8 +2124,12 @@
       <c r="B109" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/awm/doc/log/log_201608040132_fangjun.xlsx
+++ b/awm/doc/log/log_201608040132_fangjun.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A7B9C3C-CF23-48A2-9C5A-37C580B003E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02F87D0B-C0A7-4BF2-B838-D77B932F3B92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="133">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,18 @@
   </si>
   <si>
     <t>继续添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做客服聊天模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置完成，基本功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端美化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,12 +606,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137:C138"/>
+      <selection activeCell="E141" sqref="E141:E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -931,1539 +943,2004 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43217</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>43218</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>43219</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>43220</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>43221</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>43222</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>43223</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>43224</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>43225</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>43226</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>43227</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>43228</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>43229</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>43230</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>43231</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>43232</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>43233</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>43234</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>43235</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>43236</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>43237</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>43238</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>43239</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>43240</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>43241</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>43242</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>43243</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>43244</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>43245</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>43246</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>43248</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>43249</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>43250</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>43251</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>43252</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>43253</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>43254</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>43255</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>43256</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>43257</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>43258</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>43259</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>43260</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="B87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>43261</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+      <c r="B89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>43262</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="B91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>43263</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="B93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>43264</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>43265</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E97" s="3"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>43266</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="B99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="5">
         <v>43267</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="B101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="5">
         <v>43268</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="B103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="5">
         <v>43269</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="B105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="5">
         <v>43270</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="5">
         <v>43271</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="5">
         <v>43272</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="5">
         <v>43273</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="5">
         <v>43274</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="5">
         <v>43275</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="B117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E117" s="3"/>
+      <c r="E117" s="6"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="5">
         <v>43276</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="B119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+      <c r="A121" s="5">
         <v>43277</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="B121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="A123" s="5">
         <v>43278</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="B123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="5">
         <v>43279</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="B125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="5">
         <v>43280</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="B127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="5">
         <v>43281</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="B129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="A131" s="5">
         <v>43283</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="B131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="5">
         <v>43284</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="B133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="5">
         <v>43285</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="B135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="5">
         <v>43286</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+      <c r="B137" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="A139" s="5">
         <v>43287</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
+      <c r="B139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
+        <v>43337</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>43338</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>43339</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
+        <v>43340</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>43341</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>43342</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="345">
+  <mergeCells count="375">
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A139:A140"/>
     <mergeCell ref="B139:B140"/>
@@ -2488,327 +2965,6 @@
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="B133:B134"/>
     <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/awm/doc/log/log_201608040132_fangjun.xlsx
+++ b/awm/doc/log/log_201608040132_fangjun.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02F87D0B-C0A7-4BF2-B838-D77B932F3B92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69549E44-1670-4CB3-BFD7-BC038D0CEED7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,6 +556,18 @@
   </si>
   <si>
     <t>前端美化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端美化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路出现问题，重新思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做出气泡的自己加载效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,13 +617,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,7 +908,7 @@
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141:E142"/>
+      <selection activeCell="E143" sqref="E143:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -943,43 +955,43 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>43217</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>43218</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -987,23 +999,23 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>43219</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1011,23 +1023,23 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>43220</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1035,1610 +1047,1872 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>43221</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>43222</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>43223</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>43224</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>43225</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>43226</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>43227</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>43228</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>43229</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>43230</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>43231</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>43232</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>43233</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>43234</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>43235</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>43236</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>43237</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>43238</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>43239</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>43240</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>43241</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>43242</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>43243</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>43244</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>43245</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>43246</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>43248</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>43249</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>43250</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>43251</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>43252</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>43253</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>43254</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>43255</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>43256</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>43257</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>43258</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>43259</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>43260</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>43261</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>43262</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="A93" s="3">
         <v>43263</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>43264</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>43265</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E97" s="6"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>43266</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>43267</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>43268</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>43269</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>43270</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>43271</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>43272</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>43273</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+      <c r="A115" s="3">
         <v>43274</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+      <c r="A117" s="3">
         <v>43275</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E117" s="6"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+      <c r="A119" s="3">
         <v>43276</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+      <c r="A121" s="3">
         <v>43277</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+      <c r="A123" s="3">
         <v>43278</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+      <c r="A125" s="3">
         <v>43279</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+      <c r="A127" s="3">
         <v>43280</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
+      <c r="A129" s="3">
         <v>43281</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
+      <c r="A131" s="3">
         <v>43283</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+      <c r="A133" s="3">
         <v>43284</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
+      <c r="A135" s="3">
         <v>43285</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
+      <c r="A137" s="3">
         <v>43286</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+      <c r="A139" s="3">
         <v>43287</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
+      <c r="A141" s="3">
         <v>43337</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
+      <c r="A143" s="3">
         <v>43338</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
+      <c r="C143" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+      <c r="A145" s="3">
         <v>43339</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
+      <c r="A147" s="3">
         <v>43340</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
+      <c r="A149" s="3">
         <v>43341</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
+      <c r="A151" s="3">
         <v>43342</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="375">
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E16"/>
@@ -2659,312 +2933,56 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
